--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940DE1E9-B95D-4FB1-A860-A79FE4DEFCBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B2226-0349-4606-99FB-CECEE8131223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,10 @@
   </si>
   <si>
     <t>胡成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺一期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,15 +485,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -795,7 +799,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -806,7 +810,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
@@ -815,7 +819,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
@@ -824,7 +828,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
@@ -833,7 +837,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
@@ -842,7 +846,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,7 +855,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -860,7 +864,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -869,7 +873,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -880,7 +884,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -889,7 +893,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -898,7 +902,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -907,7 +911,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -916,7 +920,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -927,7 +931,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -952,7 +956,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -988,19 +992,19 @@
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>7</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>43893</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1008,19 +1012,19 @@
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>43894</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1028,19 +1032,19 @@
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>43896</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1048,19 +1052,19 @@
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>43896</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1068,19 +1072,19 @@
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>43892</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1088,19 +1092,19 @@
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>43898</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1108,33 +1112,35 @@
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>43900</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1142,19 +1148,19 @@
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>43899</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1162,19 +1168,19 @@
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>5</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>43896</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1182,19 +1188,19 @@
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>43896</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1202,19 +1208,19 @@
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1222,19 +1228,19 @@
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>43901</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1242,19 +1248,19 @@
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>43900</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1262,301 +1268,301 @@
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>3</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>5</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7">
         <v>5</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7">
         <v>2</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>3</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>3</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>3</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>3</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>2</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>2</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>2</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="7">
         <v>3</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>3</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B2226-0349-4606-99FB-CECEE8131223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762639D2-D486-487C-8ECE-F4AC42A86ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,26 @@
   </si>
   <si>
     <t>冲刺一期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020.3.9、2020.3.10
+需求进度：30%
+今天完成的工作：理解并删除部分无用代码，登录页面定制部分
+明天计划的工作： 理解并删除剩余无用代码，登出、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020.3.9、2020.3.10
+需求进度：31%
+今天完成的工作：理解并删除部分无用代码，登录页面定制部分
+明天计划的工作： 理解并删除剩余无用代码，登出、</t>
+  </si>
+  <si>
+    <t>需求任务：后台任务：后台自动扫描门架等设备数据任务
+需求进度：40%
+今日完成的工作：搭建环境并运行后台项目、后台整合quartz
+明日计划工作：测试quartz是否整合成功、完成后台自动扫描门架等设备数据任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -474,11 +494,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -494,6 +525,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -953,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7239-454E-41E6-A8EE-2B41AAE95316}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -965,10 +1000,10 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="76.08203125" customWidth="1"/>
     <col min="4" max="4" width="8.08203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>64</v>
       </c>
@@ -987,8 +1022,11 @@
       <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="12">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1028,7 +1066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1048,7 +1086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1068,7 +1106,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1126,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1146,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -1124,7 +1162,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="224" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -1143,8 +1181,11 @@
       <c r="F9" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="126" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -1163,8 +1204,11 @@
       <c r="F10" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1184,7 +1228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1204,7 +1248,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -1224,7 +1268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="154" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1243,8 +1287,11 @@
       <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="154" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -1263,8 +1310,11 @@
       <c r="F15" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>

--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762639D2-D486-487C-8ECE-F4AC42A86ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C0BDA-EEC5-4669-8786-DB4625524899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,10 @@
 需求进度：40%
 今日完成的工作：搭建环境并运行后台项目、后台整合quartz
 明日计划工作：测试quartz是否整合成功、完成后台自动扫描门架等设备数据任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,16 +523,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -834,7 +838,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -845,7 +849,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
@@ -854,7 +858,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
@@ -863,7 +867,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
@@ -872,7 +876,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
@@ -881,7 +885,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -890,7 +894,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -899,7 +903,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -908,7 +912,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -919,7 +923,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -928,7 +932,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -937,7 +941,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -946,7 +950,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -955,7 +959,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -966,7 +970,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -991,7 +995,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1026,7 @@
       <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="10">
         <v>43896</v>
       </c>
     </row>
@@ -1162,7 +1166,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="224" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -1181,7 +1185,7 @@
       <c r="F9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1204,7 +1208,7 @@
       <c r="F10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1287,7 +1291,7 @@
       <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1310,7 +1314,7 @@
       <c r="F15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1467,8 +1471,12 @@
       <c r="D25" s="7">
         <v>3</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="8">
+        <v>43902</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -1483,8 +1491,12 @@
       <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="8">
+        <v>43902</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">

--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C0BDA-EEC5-4669-8786-DB4625524899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6C0C8-F4F8-44FB-82F0-A73888555AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,35 @@
   </si>
   <si>
     <t>李超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-11
+需求进度：20%
+今天完成的工作：代码运行，用户管理功能页面初步设计
+明天计划的工作：用户管理，组织架构 功能页面第一版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020.3.9
+需求进度：70%
+今天完成的工作：理解并剩余无用代码，登录页面定制，登出，根据不同角色完成不同显示
+明天计划的工作：加token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求任务：后台任务：后台自动扫描门架等设备数据任务
+需求进度：60%
+今日完成的工作：后台整合quartz并测试、完成表创建以及基本实体类创建
+明日计划工作：梳理逻辑开始写业务代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台任务：查询process表格，将数据插入到业务表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将数据经过算法插入到business表中，以便于前台页面展示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -533,6 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -992,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7239-454E-41E6-A8EE-2B41AAE95316}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1004,10 +1034,12 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="76.08203125" customWidth="1"/>
     <col min="4" max="4" width="8.08203125" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>64</v>
       </c>
@@ -1029,8 +1061,11 @@
       <c r="G1" s="10">
         <v>43896</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="13">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1050,7 +1085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1105,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1125,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1110,7 +1145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1130,7 +1165,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -1166,7 +1201,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="126" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -1188,8 +1223,11 @@
       <c r="G9" s="9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="126" x14ac:dyDescent="0.3">
+      <c r="H9" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -1211,8 +1249,11 @@
       <c r="G10" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1273,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +1293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -1272,7 +1313,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="154" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1294,8 +1335,11 @@
       <c r="G14" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="154" x14ac:dyDescent="0.3">
+      <c r="H14" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -1317,108 +1361,111 @@
       <c r="G15" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>2</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="7">
-        <v>3</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D18" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D19" s="7">
         <v>5</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D22" s="7">
         <v>3</v>
@@ -1426,15 +1473,15 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D23" s="7">
         <v>3</v>
@@ -1442,81 +1489,87 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D25" s="7">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8">
-        <v>43902</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D26" s="7">
         <v>3</v>
       </c>
       <c r="E26" s="8">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="7">
-        <v>2</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="8">
+        <v>43901</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>9</v>
@@ -1530,15 +1583,15 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7">
         <v>2</v>
@@ -1546,31 +1599,31 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="7">
         <v>3</v>
@@ -1578,11 +1631,19 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
@@ -1626,6 +1687,14 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B6C0C8-F4F8-44FB-82F0-A73888555AFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5901D-CA83-4C80-B70F-65AEF55D5526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="模块拆解" sheetId="1" r:id="rId1"/>
+    <sheet name="需求拆解详情" sheetId="2" r:id="rId2"/>
+    <sheet name="问题单" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,6 +429,51 @@
   </si>
   <si>
     <t>将数据经过算法插入到business表中，以便于前台页面展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工控机异常告警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备版本号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备版本号管理，从系统参数中读取数据进行管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-11
+需求进度：50%
+今天完成的工作：用户管理，组织架构 功能页面第一版
+明天计划的工作：页面优化调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求任务：后台任务：后台自动扫描门架等设备数据任务
+需求进度：75%
+今日完成的工作：完成门架定时任务
+明日计划工作：测试门架定时任务，书写自控机定时任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020.3.10
+需求进度：100%
+今天完成的工作：加权限过滤器，完善登录页，动态菜单，加token，登录表单验证，
+明天计划的工作：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,13 +602,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -846,7 +892,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -868,7 +914,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -879,7 +925,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
@@ -888,7 +934,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
@@ -897,7 +943,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
@@ -906,7 +952,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
@@ -915,7 +961,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -924,7 +970,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -933,7 +979,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -942,7 +988,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -953,7 +999,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -962,7 +1008,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -971,7 +1017,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -980,7 +1026,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -989,7 +1035,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1000,7 +1046,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1022,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7239-454E-41E6-A8EE-2B41AAE95316}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1034,12 +1080,12 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="76.08203125" customWidth="1"/>
     <col min="4" max="4" width="8.08203125" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>64</v>
       </c>
@@ -1061,11 +1107,20 @@
       <c r="G1" s="10">
         <v>43896</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="11">
         <v>43899</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="11">
+        <v>43900</v>
+      </c>
+      <c r="J1" s="11">
+        <v>43901</v>
+      </c>
+      <c r="K1" s="11">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1085,7 +1140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1125,7 +1180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1165,7 +1220,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1185,7 +1240,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -1201,7 +1256,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
@@ -1226,8 +1281,11 @@
       <c r="H9" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
@@ -1252,8 +1310,11 @@
       <c r="H10" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1273,7 +1334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
@@ -1293,7 +1354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -1313,7 +1374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1338,8 +1399,11 @@
       <c r="H14" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
@@ -1364,8 +1428,11 @@
       <c r="H15" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
@@ -1377,11 +1444,13 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
@@ -1397,7 +1466,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
@@ -1408,96 +1477,100 @@
         <v>72</v>
       </c>
       <c r="D18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D19" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="D20" s="7">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" s="7">
         <v>2</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C23" s="7"/>
       <c r="D23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7">
         <v>3</v>
@@ -1505,119 +1578,127 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D25" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="8">
-        <v>43901</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="7">
-        <v>3</v>
-      </c>
-      <c r="E27" s="8">
-        <v>43901</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D28" s="7">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>43901</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="7">
-        <v>2</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>43901</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="7">
         <v>2</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F30" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>9</v>
@@ -1626,41 +1707,65 @@
         <v>60</v>
       </c>
       <c r="D31" s="7">
-        <v>3</v>
-      </c>
-      <c r="E31" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D34" s="7">
         <v>3</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1695,9 +1800,55 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E21E0BD-7A45-44D7-8997-BC698F54D8AD}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5901D-CA83-4C80-B70F-65AEF55D5526}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B1FCF-0C15-42C2-B29C-25B18D1239C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,6 +474,51 @@
 需求进度：100%
 今天完成的工作：加权限过滤器，完善登录页，动态菜单，加token，登录表单验证，
 明天计划的工作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月10号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月9号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态菜单加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从后台数据库获取菜单，利用动态路由的方式加载到前端中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持可以多选部门，主要是针对运维人员和管理员来说。需要入表角色与部门表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-11
+需求进度：80%
+今天完成的工作：用户管理，组织架构 功能页面完成
+明天计划的工作：用户管理添加功能-添加角色选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020.3.13
+需求进度：30%
+今天完成的工作：建立数据库字典表、实体类、前端接收路由信息并处理
+明天计划的工作：将路由信息处理成可识别的路由对象并过滤权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求任务：后台任务：后台自动扫描门架等设备数据任务
+需求进度：100%
+今日完成的工作：完成门架、主控机、网络定时任务
+明日计划工作：测试问题并修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -609,6 +654,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1068,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7239-454E-41E6-A8EE-2B41AAE95316}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1081,11 +1134,12 @@
     <col min="3" max="3" width="76.08203125" customWidth="1"/>
     <col min="4" max="4" width="8.08203125" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>64</v>
       </c>
@@ -1104,23 +1158,26 @@
       <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="10">
         <v>43896</v>
       </c>
-      <c r="H1" s="11">
+      <c r="I1" s="11">
         <v>43899</v>
       </c>
-      <c r="I1" s="11">
+      <c r="J1" s="11">
         <v>43900</v>
       </c>
-      <c r="J1" s="11">
+      <c r="K1" s="11">
         <v>43901</v>
       </c>
-      <c r="K1" s="11">
+      <c r="L1" s="11">
         <v>43902</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1139,8 +1196,9 @@
       <c r="F2" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1159,8 +1217,9 @@
       <c r="F3" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1179,8 +1238,9 @@
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1199,8 +1259,9 @@
       <c r="F5" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1219,8 +1280,9 @@
       <c r="F6" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1239,8 +1301,9 @@
       <c r="F7" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -1255,97 +1318,106 @@
         <v>85</v>
       </c>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="15">
         <v>43900</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="15">
         <v>43899</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8">
+        <v>43903</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="K11" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="7">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8">
-        <v>43896</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="8">
         <v>43896</v>
@@ -1353,140 +1425,155 @@
       <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8">
+        <v>43896</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-      <c r="E14" s="8">
-        <v>43901</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
       </c>
       <c r="E15" s="8">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>43900</v>
+      </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F18" s="7"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>75</v>
@@ -1495,172 +1582,174 @@
         <v>72</v>
       </c>
       <c r="D19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D20" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D21" s="7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="7"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="D22" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D25" s="7">
         <v>3</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7">
         <v>3</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D28" s="7">
-        <v>3</v>
-      </c>
-      <c r="E28" s="8">
-        <v>43901</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D29" s="7">
         <v>3</v>
@@ -1671,150 +1760,198 @@
       <c r="F29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="G29" s="18"/>
+      <c r="I29" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K29" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="7">
-        <v>2</v>
-      </c>
-      <c r="E30" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E30" s="8">
+        <v>43901</v>
+      </c>
       <c r="F30" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="I30" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="8">
+        <v>43903</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="18"/>
+      <c r="K31" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="7">
         <v>2</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="7"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D33" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="7">
         <v>3</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B1FCF-0C15-42C2-B29C-25B18D1239C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDBE7E0-B2DC-4F33-A317-301BF39C3134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,23 @@
 需求进度：100%
 今日完成的工作：完成门架、主控机、网络定时任务
 明日计划工作：测试问题并修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在进行自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-12
+需求进度：100%
+今天完成的工作：用户管理，组织架构 功能页面完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020.3.13
+需求进度：60%
+今天完成的工作：编写后端准备传输的路由模板，编写前端接收的路由模板，解决传输过程中数据不匹配的bug
+明天计划的工作：完成动态路由展示菜单、权限管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -648,12 +665,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -662,6 +673,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -967,7 +987,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -978,7 +998,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
         <v>47</v>
       </c>
@@ -987,7 +1007,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
@@ -996,7 +1016,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1005,7 +1025,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
@@ -1014,7 +1034,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1043,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1052,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1061,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1052,7 +1072,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1081,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +1090,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1079,7 +1099,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1108,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1099,7 +1119,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1121,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7239-454E-41E6-A8EE-2B41AAE95316}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1159,7 @@
     <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>64</v>
       </c>
@@ -1158,7 +1178,7 @@
       <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>104</v>
       </c>
       <c r="H1" s="10">
@@ -1176,8 +1196,14 @@
       <c r="L1" s="11">
         <v>43902</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="11">
+        <v>43903</v>
+      </c>
+      <c r="N1" s="11">
+        <v>43904</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1196,9 +1222,9 @@
       <c r="F2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1217,9 +1243,9 @@
       <c r="F3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1238,9 +1264,9 @@
       <c r="F4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1259,9 +1285,9 @@
       <c r="F5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1280,9 +1306,9 @@
       <c r="F6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1301,9 +1327,9 @@
       <c r="F7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
@@ -1318,13 +1344,13 @@
         <v>85</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1333,30 +1359,30 @@
       <c r="D9" s="5">
         <v>3</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>43900</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1365,26 +1391,26 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>43899</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>107</v>
       </c>
@@ -1401,12 +1427,15 @@
       <c r="F11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="16"/>
       <c r="K11" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L11" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -1425,9 +1454,9 @@
       <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1446,9 +1475,9 @@
       <c r="F13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
@@ -1467,9 +1496,9 @@
       <c r="F14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -1488,7 +1517,7 @@
       <c r="F15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="9" t="s">
         <v>88</v>
       </c>
@@ -1501,8 +1530,11 @@
       <c r="K15" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
@@ -1521,7 +1553,7 @@
       <c r="F16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="9" t="s">
         <v>88</v>
       </c>
@@ -1534,8 +1566,11 @@
       <c r="K16" s="9" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -1550,11 +1585,11 @@
       <c r="F17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
@@ -1569,9 +1604,9 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
@@ -1588,9 +1623,9 @@
       <c r="F19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
@@ -1605,9 +1640,9 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>96</v>
       </c>
@@ -1622,9 +1657,9 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
@@ -1641,9 +1676,9 @@
       <c r="F22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -1656,9 +1691,9 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
@@ -1671,9 +1706,9 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
@@ -1688,9 +1723,9 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -1705,9 +1740,9 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>45</v>
       </c>
@@ -1722,9 +1757,9 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -1739,9 +1774,9 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
@@ -1760,7 +1795,7 @@
       <c r="F29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="18"/>
+      <c r="G29" s="16"/>
       <c r="I29" s="9" t="s">
         <v>90</v>
       </c>
@@ -1770,8 +1805,11 @@
       <c r="K29" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>46</v>
       </c>
@@ -1790,7 +1828,7 @@
       <c r="F30" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="16"/>
       <c r="I30" s="9" t="s">
         <v>90</v>
       </c>
@@ -1800,8 +1838,11 @@
       <c r="K30" s="9" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -1820,12 +1861,15 @@
       <c r="F31" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="16"/>
       <c r="K31" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -1840,7 +1884,7 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="18"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
@@ -1859,7 +1903,7 @@
       <c r="F33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
@@ -1878,7 +1922,7 @@
       <c r="F34" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="18"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -1897,7 +1941,7 @@
         <v>85</v>
       </c>
       <c r="F35" s="7"/>
-      <c r="G35" s="18"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
@@ -1906,7 +1950,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="18"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
@@ -1915,7 +1959,7 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="18"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
@@ -1924,7 +1968,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="18"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
@@ -1933,7 +1977,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="18"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
@@ -1942,7 +1986,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="18"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
@@ -1951,7 +1995,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="18"/>
+      <c r="G41" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDBE7E0-B2DC-4F33-A317-301BF39C3134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A94DD-CABD-4055-8C74-DDF8728B5F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="128">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台任务：后台自动扫描门架等设备数据任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台任务：后台自动扫描网络状态等任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,10 +236,6 @@
   </si>
   <si>
     <t>系统日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从各处设备获取数据入平台数据库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -536,6 +528,62 @@
 需求进度：60%
 今天完成的工作：编写后端准备传输的路由模板，编写前端接收的路由模板，解决传输过程中数据不匹配的bug
 明天计划的工作：完成动态路由展示菜单、权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月19日上午验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台任务：后台自动扫描门架等数据任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台任务：后台自动扫描工控机等数据任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从门架服务器获取数据的数据进行处理入平台数据库process表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从工控机获取数据的数据进行处理入平台数据库process表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成进度100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成动态菜单加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求下发10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天需求暂无进展，周二下班前要求完成需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时通知栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>websocket连接到business相关表格，监听表格变化，进行通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工控机状态监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经推迟了一天了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +622,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +656,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -679,9 +733,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -991,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -1000,7 +1060,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -1009,7 +1069,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -1018,7 +1078,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1027,7 +1087,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -1141,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7239-454E-41E6-A8EE-2B41AAE95316}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1159,18 +1219,18 @@
     <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>17</v>
@@ -1179,7 +1239,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H1" s="10">
         <v>43896</v>
@@ -1200,161 +1260,179 @@
         <v>43903</v>
       </c>
       <c r="N1" s="11">
-        <v>43904</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>43906</v>
+      </c>
+      <c r="O1" s="11">
+        <v>43907</v>
+      </c>
+      <c r="P1" s="11">
+        <v>43908</v>
+      </c>
+      <c r="Q1" s="11">
+        <v>43909</v>
+      </c>
+      <c r="R1" s="11">
+        <v>43910</v>
+      </c>
+      <c r="S1" s="11">
+        <v>43911</v>
+      </c>
+      <c r="T1" s="11">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>7</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="13">
         <v>43893</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="13">
         <v>43894</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>5</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="13">
         <v>43896</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="13">
         <v>43896</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="13">
         <v>43892</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="13">
         <v>43898</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -1363,30 +1441,30 @@
         <v>43900</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -1395,582 +1473,664 @@
         <v>43899</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
         <v>43903</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" s="16"/>
       <c r="K11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="22">
+        <v>5</v>
+      </c>
+      <c r="E13" s="24">
+        <v>43896</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3</v>
+      </c>
+      <c r="E14" s="24">
+        <v>43896</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13">
+        <v>43901</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="20">
+        <v>43902</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5</v>
-      </c>
-      <c r="E12" s="8">
-        <v>43896</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8">
-        <v>43896</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43900</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="20">
+        <v>43901</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43903</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="20">
+        <v>43903</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="M19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D20" s="7">
         <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>43901</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>43900</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="D23" s="7">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="D25" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>57</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D29" s="7">
         <v>3</v>
       </c>
-      <c r="E29" s="8">
-        <v>43901</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="16"/>
-      <c r="I29" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D30" s="7">
         <v>3</v>
       </c>
-      <c r="E30" s="8">
-        <v>43901</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>89</v>
-      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="16"/>
-      <c r="I30" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="D31" s="7">
         <v>2</v>
       </c>
-      <c r="E31" s="8">
-        <v>43903</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>83</v>
-      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="16"/>
-      <c r="K31" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="E32" s="13">
+        <v>43901</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="20">
+        <v>43902</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="7">
-        <v>2</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3</v>
+      </c>
+      <c r="E33" s="13">
+        <v>43901</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="20">
+        <v>43902</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="8">
+        <v>43906</v>
+      </c>
       <c r="F34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D35" s="7">
-        <v>3</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>85</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="8">
+        <v>43907</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="M36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -1979,7 +2139,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -1988,7 +2148,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -1996,6 +2156,33 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="16"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2016,16 +2203,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5A94DD-CABD-4055-8C74-DDF8728B5F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FB5FD-B55A-424C-8D2F-C9637E2ACD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="131">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,10 +531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3月19日上午验收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台任务：后台自动扫描门架等数据任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,6 +580,31 @@
   </si>
   <si>
     <t>已经推迟了一天了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经推迟到3月19日上午检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-19
+需求进度：10%
+今天的工作：门架异常信息处理逻辑（10%）
+明天的工作：门架异常信息处理逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020.3.17下班前
+需求进度：45％
+今天完成的工作：角色权限管理初步页面、后端大部分
+明天计划的工作：角色权限管理剩余部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求任务：后台任务：定时任务管理模块
+需求进度：60%
+今日完成的工作：列表展示、分页、查询、新增
+明日计划工作：新增、修改、删除、暂停、恢复...测试问题并修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,12 +748,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -742,6 +757,12 @@
     <xf numFmtId="58" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1047,7 +1068,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1058,7 +1079,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1067,7 +1088,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1076,7 +1097,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1085,7 +1106,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
@@ -1094,7 +1115,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1124,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1133,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1142,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1132,7 +1153,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -1141,7 +1162,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1150,7 +1171,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1159,7 +1180,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1189,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1179,7 +1200,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -1203,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7239-454E-41E6-A8EE-2B41AAE95316}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1213,6 +1234,7 @@
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="76.08203125" customWidth="1"/>
     <col min="4" max="4" width="8.08203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
@@ -1513,18 +1535,18 @@
         <v>113</v>
       </c>
       <c r="M11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
@@ -1535,47 +1557,47 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="20">
         <v>5</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>43896</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="20">
         <v>3</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>43896</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1600,13 +1622,13 @@
     </row>
     <row r="16" spans="1:20" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
@@ -1617,7 +1639,7 @@
       <c r="F16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="18">
         <v>43902</v>
       </c>
       <c r="H16" s="14" t="s">
@@ -1632,11 +1654,11 @@
       <c r="K16" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1655,7 +1677,7 @@
       <c r="F17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <v>43901</v>
       </c>
       <c r="H17" s="14" t="s">
@@ -1670,19 +1692,19 @@
       <c r="K17" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
@@ -1693,16 +1715,16 @@
       <c r="F18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="18">
         <v>43903</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
@@ -1713,8 +1735,8 @@
         <v>92</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="8" t="s">
-        <v>114</v>
+      <c r="E19" s="8">
+        <v>43909</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>87</v>
@@ -1723,10 +1745,13 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="M19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -1743,7 +1768,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
@@ -1756,18 +1781,21 @@
       <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>114</v>
+      <c r="E21" s="8">
+        <v>43910</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G21" s="16"/>
       <c r="M21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>93</v>
       </c>
@@ -1786,7 +1814,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
@@ -1805,7 +1833,7 @@
       </c>
       <c r="G23" s="16"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
@@ -1818,29 +1846,32 @@
       <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>114</v>
+      <c r="E24" s="8">
+        <v>43910</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G24" s="16"/>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -1851,7 +1882,7 @@
       </c>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -1866,7 +1897,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
@@ -1881,7 +1912,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -1898,7 +1929,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -1915,7 +1946,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -1932,7 +1963,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
@@ -1949,7 +1980,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:13" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
@@ -1968,7 +1999,7 @@
       <c r="F32" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <v>43902</v>
       </c>
       <c r="I32" s="14" t="s">
@@ -1984,7 +2015,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -2003,7 +2034,7 @@
       <c r="F33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="18">
         <v>43902</v>
       </c>
       <c r="I33" s="14" t="s">
@@ -2019,7 +2050,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>47</v>
       </c>
@@ -2039,7 +2070,7 @@
         <v>81</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>109</v>
@@ -2048,10 +2079,13 @@
         <v>113</v>
       </c>
       <c r="M34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>48</v>
       </c>
@@ -2068,7 +2102,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>1</v>
       </c>
@@ -2087,12 +2121,17 @@
       <c r="F36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="M36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
@@ -2111,7 +2150,7 @@
       </c>
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>50</v>
       </c>
@@ -2130,7 +2169,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -2139,7 +2178,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -2148,7 +2187,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2157,7 +2196,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -2166,7 +2205,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -2175,7 +2214,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>

--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FB5FD-B55A-424C-8D2F-C9637E2ACD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3357BABB-1B7D-4676-8ECA-CB4C289A8C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="142">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +228,6 @@
   </si>
   <si>
     <t>菜单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统参数、字典管理等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -605,6 +601,72 @@
 需求进度：60%
 今日完成的工作：列表展示、分页、查询、新增
 明日计划工作：新增、修改、删除、暂停、恢复...测试问题并修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门架定义基本信息表数据迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门架、工控机基本数据迁移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典管理等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020.3.17下班前
+需求进度：100％
+今天完成的工作：角色权限管理
+明天计划的工作：完善角色权限管理，调整样式，修改部分问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020.3.18
+需求进度：100％
+今天完成的工作：实现对字典对象增删改查，开发出接口，并测试
+明天计划的工作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-19
+需求进度：50%
+今天的工作：门架异常信息处理逻辑（50%）
+明天的工作：完成门架异常信息后台处理逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-19
+需求进度：90%
+今天的工作：门架异常信息处理逻辑
+明天的工作：工控机异常信息处理逻辑完善反向查询逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求任务：后台任务：定时任务管理模块
+需求进度：90%
+今日完成的工作：新增、修改、删除、暂停、恢复、立即执行
+明日计划工作：新增问题修改、日志列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求任务：后台任务：定时任务管理模块
+需求进度：100%
+今日完成的工作：新增问题修改、日志列表、查询
+明日计划工作：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1170,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -1222,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7239-454E-41E6-A8EE-2B41AAE95316}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C44" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1237,16 +1299,17 @@
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
@@ -1261,7 +1324,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" s="10">
         <v>43896</v>
@@ -1308,7 +1371,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -1320,7 +1383,7 @@
         <v>43893</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="17"/>
     </row>
@@ -1329,7 +1392,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>26</v>
@@ -1341,7 +1404,7 @@
         <v>43894</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="17"/>
     </row>
@@ -1350,7 +1413,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -1362,7 +1425,7 @@
         <v>43896</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="17"/>
     </row>
@@ -1371,7 +1434,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>28</v>
@@ -1383,7 +1446,7 @@
         <v>43896</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="17"/>
     </row>
@@ -1392,7 +1455,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>29</v>
@@ -1404,7 +1467,7 @@
         <v>43892</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="17"/>
     </row>
@@ -1413,10 +1476,10 @@
         <v>24</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
@@ -1425,36 +1488,36 @@
         <v>43898</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:20" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -1463,30 +1526,30 @@
         <v>43900</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -1495,63 +1558,63 @@
         <v>43899</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
         <v>43903</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="16"/>
       <c r="K11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="16"/>
       <c r="K12" s="9"/>
@@ -1562,7 +1625,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>36</v>
@@ -1574,7 +1637,7 @@
         <v>43896</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -1583,7 +1646,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>37</v>
@@ -1595,349 +1658,369 @@
         <v>43896</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>12</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13">
-        <v>43901</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="18">
-        <v>43902</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
       </c>
       <c r="E17" s="13">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43900</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="18">
+        <v>43901</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="13">
+      <c r="C19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
         <v>43903</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="F19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="18">
         <v>43903</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8">
-        <v>43909</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="M19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8">
+        <v>43909</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="M20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="8">
-        <v>43910</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="16"/>
-      <c r="M21" t="s">
-        <v>121</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>43913</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="M22" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>43914</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="7">
+      <c r="B25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>43913</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8">
-        <v>43910</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="I24" t="s">
-        <v>118</v>
-      </c>
-      <c r="M24" t="s">
-        <v>121</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7">
-        <v>5</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="8">
+        <v>43914</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D29" s="7">
         <v>3</v>
@@ -1946,15 +2029,15 @@
       <c r="F29" s="7"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D30" s="7">
         <v>3</v>
@@ -1963,67 +2046,49 @@
       <c r="F30" s="7"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:14" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="5">
-        <v>3</v>
-      </c>
-      <c r="E32" s="13">
-        <v>43901</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="18">
-        <v>43902</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D33" s="5">
         <v>3</v>
@@ -2032,162 +2097,206 @@
         <v>43901</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" s="18">
         <v>43902</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K33" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3</v>
+      </c>
+      <c r="E34" s="13">
+        <v>43901</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="18">
+        <v>43902</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2</v>
+      </c>
+      <c r="E35" s="13">
+        <v>43906</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K35" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L35" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="7">
-        <v>2</v>
-      </c>
-      <c r="E34" s="8">
-        <v>43906</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M34" t="s">
-        <v>120</v>
-      </c>
-      <c r="N34" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="M35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="7">
         <v>2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="5">
+        <v>2</v>
+      </c>
+      <c r="E37" s="13">
         <v>43907</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="M36" t="s">
-        <v>122</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G37" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O37" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P37" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D38" s="7">
-        <v>3</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="P38" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2196,7 +2305,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -2205,7 +2314,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -2214,7 +2323,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -2222,6 +2331,24 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2242,16 +2369,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/02项目过程管理/02交付计划/需求拆解.xlsx
+++ b/02项目过程管理/02交付计划/需求拆解.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitWorkSpace\运维平台\02项目过程管理\02交付计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3357BABB-1B7D-4676-8ECA-CB4C289A8C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DBC951-DC6D-478F-B369-189E91D3D106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="模块拆解" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="147">
   <si>
     <t>系统参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台任务：其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shell脚本运行在门架各处中将数据插入到数据库中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +232,6 @@
   </si>
   <si>
     <t>平台ping各个单元的情况入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -631,13 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标完成时间：2020.3.18
-需求进度：100％
-今天完成的工作：实现对字典对象增删改查，开发出接口，并测试
-明天计划的工作：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标完成时间：2020-03-19
 需求进度：50%
 今天的工作：门架异常信息处理逻辑（50%）
@@ -667,6 +652,56 @@
 需求进度：100%
 今日完成的工作：新增问题修改、日志列表、查询
 明日计划工作：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔心春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙伟杰完成基本增删改查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-23
+需求进度：50%
+今天的工作：工控机异常信息处理逻辑完善
+明天的工作：门架异常信息时间处理逻辑修改、门架异常信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-23
+需求进度：70%
+今天的工作：门架异常信息逻辑修改，工控机异常信息逻辑修改，门架异常信息页面
+明天的工作：门架异常信息页面，门架信息管理页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：2020-03-24
+需求进度：70%
+今天的工作：门架异常信息页面优化，门架信息管理页面优化 
+明天的工作：门架异常信息页面完成，门架信息管理页面完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求任务：后台任务：主控机异常展示
+需求进度：60%
+今日完成的工作：左侧树、右侧列表完成70%
+明日计划工作：右侧列表完成等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求任务：后台任务：主控机异常展示
+需求进度：30%
+今日完成的工作：左侧树、右侧列表完成50%
+明日计划工作：右侧列表完成、及查询等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标完成时间：3.25
+需求进度：20%
+今天完成的工作：配置环境，熟悉后端和前端框架，页面列表展示的接口
+今天计划的工作：熟悉后端和前端框架，页面列表展示的接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1134,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -1143,7 +1178,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -1152,7 +1187,7 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -1161,7 +1196,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1170,7 +1205,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -1284,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074E7239-454E-41E6-A8EE-2B41AAE95316}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C44" sqref="C43:C44"/>
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1304,18 +1339,18 @@
     <col min="10" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>17</v>
@@ -1324,7 +1359,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H1" s="10">
         <v>43896</v>
@@ -1360,18 +1395,30 @@
         <v>43910</v>
       </c>
       <c r="S1" s="11">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="T1" s="11">
-        <v>43912</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43914</v>
+      </c>
+      <c r="U1" s="11">
+        <v>43915</v>
+      </c>
+      <c r="V1" s="11">
+        <v>43916</v>
+      </c>
+      <c r="W1" s="11">
+        <v>43917</v>
+      </c>
+      <c r="X1" s="11">
+        <v>43918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -1383,16 +1430,16 @@
         <v>43893</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>26</v>
@@ -1404,16 +1451,16 @@
         <v>43894</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>27</v>
@@ -1425,16 +1472,16 @@
         <v>43896</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>28</v>
@@ -1446,16 +1493,16 @@
         <v>43896</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>29</v>
@@ -1467,19 +1514,19 @@
         <v>43892</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
@@ -1488,36 +1535,36 @@
         <v>43898</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="3" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -1526,30 +1573,30 @@
         <v>43900</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="3" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -1558,77 +1605,77 @@
         <v>43899</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8">
         <v>43903</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" s="16"/>
       <c r="K11" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="16"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="20">
         <v>5</v>
@@ -1637,19 +1684,19 @@
         <v>43896</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="23"/>
     </row>
-    <row r="14" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="20">
         <v>3</v>
@@ -1658,55 +1705,57 @@
         <v>43896</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="23"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
         <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="5">
         <v>2</v>
@@ -1715,28 +1764,28 @@
         <v>43901</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="18">
         <v>43902</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>34</v>
       </c>
@@ -1744,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
@@ -1753,36 +1802,36 @@
         <v>43900</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G18" s="18">
         <v>43901</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="5">
         <v>1</v>
@@ -1791,7 +1840,7 @@
         <v>43903</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G19" s="18">
         <v>43903</v>
@@ -1802,225 +1851,264 @@
       <c r="K19" s="14"/>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8">
         <v>43909</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="M20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="8">
+        <v>43913</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>118</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>43914</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="R22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:19" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E24" s="8">
         <v>43913</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="M22" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="P22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="F24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="I24" t="s">
+        <v>115</v>
+      </c>
+      <c r="M24" t="s">
+        <v>118</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="7">
         <v>1</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E25" s="8">
         <v>43914</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="F25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="R25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="7">
-        <v>2</v>
-      </c>
-      <c r="E25" s="8">
-        <v>43913</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="I25" t="s">
-        <v>117</v>
-      </c>
-      <c r="M25" t="s">
-        <v>120</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="O25" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="P25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <v>43914</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="B27" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="D28" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
         <v>3</v>
@@ -2029,7 +2117,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -2037,7 +2125,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D30" s="7">
         <v>3</v>
@@ -2046,49 +2134,67 @@
       <c r="F30" s="7"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:16" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3</v>
+      </c>
+      <c r="E32" s="13">
+        <v>43901</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="18">
+        <v>43902</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D33" s="5">
         <v>3</v>
@@ -2097,206 +2203,186 @@
         <v>43901</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G33" s="18">
         <v>43902</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="D34" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="13">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="18">
-        <v>43902</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="3" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="13">
-        <v>43906</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="M35" s="3" t="s">
+      <c r="E35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:20" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="5">
+        <v>2</v>
+      </c>
+      <c r="E36" s="13">
+        <v>43907</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N35" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="O35" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="N36" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="P36" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="7">
-        <v>2</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:16" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="C37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="7">
         <v>1</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="5">
-        <v>2</v>
-      </c>
-      <c r="E37" s="13">
-        <v>43907</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="O37" s="14" t="s">
+      <c r="E37" s="8">
+        <v>43915</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="P37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="P37" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S37" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="T37" s="9"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="P38" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="7">
-        <v>3</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>82</v>
-      </c>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2305,7 +2391,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -2314,7 +2400,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -2323,7 +2409,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -2332,7 +2418,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -2340,15 +2426,6 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2369,16 +2446,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
